--- a/alexander_matheson/final_project/Schema Design.xlsx
+++ b/alexander_matheson/final_project/Schema Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-20" windowWidth="14400" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="14960" yWindow="600" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
   <si>
     <t>locations_start</t>
   </si>
@@ -240,9 +240,6 @@
     <t>activity_id</t>
   </si>
   <si>
-    <t>free_places</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>current_location</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>going surfing at pacifica Sunday morning for a few hours</t>
   </si>
   <si>
-    <t>Car</t>
-  </si>
-  <si>
     <t>Looking for people who want to go hiking at mt diablo on Sunday</t>
   </si>
   <si>
@@ -349,6 +340,93 @@
   </si>
   <si>
     <t>fishing</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>location_end</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>user has_many trips</t>
+  </si>
+  <si>
+    <t>trip belongs_to user</t>
+  </si>
+  <si>
+    <t>location_start belong_to region</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>location_end has_many activitys</t>
+  </si>
+  <si>
+    <t>activity has_many location_ends</t>
+  </si>
+  <si>
+    <t>following</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>trip has_one location_end</t>
+  </si>
+  <si>
+    <t>trip has_one location_start</t>
+  </si>
+  <si>
+    <t>location_start has_many location_ends</t>
+  </si>
+  <si>
+    <t>location_end has_many location_starts</t>
+  </si>
+  <si>
+    <t>region has_many locations_starts</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>date_sent</t>
+  </si>
+  <si>
+    <t>blah blah</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>message has_many users</t>
+  </si>
+  <si>
+    <t>user has_many messages</t>
+  </si>
+  <si>
+    <t>spots</t>
   </si>
 </sst>
 </file>
@@ -485,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -505,8 +583,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -521,8 +601,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -532,6 +616,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -541,6 +626,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,54 +956,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG72"/>
+  <dimension ref="A2:AJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="24" max="24" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:36">
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="10"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="10"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
-      <c r="AG2" s="10"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="10"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>44</v>
@@ -930,73 +1016,73 @@
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="AI3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:36">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1013,71 +1099,71 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="2">
+      <c r="X4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="2">
         <v>50</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AE4" s="7">
         <v>42098</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AF4" s="7">
         <v>42100</v>
       </c>
-      <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="2">
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2">
         <v>7</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AI4" s="2">
         <v>8</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AJ4" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1089,62 +1175,62 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="O5" s="2"/>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
         <v>4</v>
       </c>
-      <c r="S5" s="1">
-        <v>2</v>
-      </c>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="1">
-        <v>2</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="2">
+      <c r="X5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="2">
         <v>4</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1156,58 +1242,58 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>3</v>
-      </c>
-      <c r="S6" s="1">
-        <v>3</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W6" s="1">
-        <v>3</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" s="2" t="b">
+      <c r="X6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1219,54 +1305,54 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="1">
+        <v>95</v>
+      </c>
+      <c r="M7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2"/>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>5</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="T7" s="3">
         <v>4</v>
       </c>
-      <c r="S7" s="1">
+      <c r="V7" s="1">
         <v>4</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W7" s="1">
+      <c r="X7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="1">
         <v>4</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1278,98 +1364,98 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="1">
+        <v>95</v>
+      </c>
+      <c r="M8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2"/>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
-      <c r="S8" s="1">
+      <c r="S8" s="2"/>
+      <c r="T8" s="3"/>
+      <c r="V8" s="1">
         <v>5</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="X8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="1">
         <v>5</v>
       </c>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="E9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="1">
+        <v>95</v>
+      </c>
+      <c r="M9" s="1">
         <v>6</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2"/>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
         <v>6</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="S9" s="1">
+      <c r="S9" s="5"/>
+      <c r="T9" s="6"/>
+      <c r="V9" s="1">
         <v>6</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W9" s="1">
+      <c r="X9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9" s="1">
         <v>6</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="E10" s="1">
         <v>7</v>
       </c>
@@ -1377,42 +1463,42 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="1">
+        <v>95</v>
+      </c>
+      <c r="M10" s="1">
         <v>7</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="O10" s="2"/>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
         <v>7</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" s="1">
+      <c r="X10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" s="1">
         <v>7</v>
       </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="E11" s="1">
         <v>8</v>
       </c>
@@ -1420,42 +1506,42 @@
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="1">
+        <v>95</v>
+      </c>
+      <c r="M11" s="1">
         <v>8</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="O11" s="2"/>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
         <v>8</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="1">
+      <c r="X11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11" s="1">
         <v>8</v>
       </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:36">
       <c r="E12" s="4">
         <v>9</v>
       </c>
@@ -1463,62 +1549,62 @@
         <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="1">
+        <v>95</v>
+      </c>
+      <c r="M12" s="1">
         <v>9</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="O12" s="2"/>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
         <v>9</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W12" s="4">
+      <c r="W12" s="2"/>
+      <c r="X12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" s="4">
         <v>9</v>
       </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="6"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="J13" s="1">
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="6"/>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="M13" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="O13" s="2"/>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
         <v>10</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="W13" s="2"/>
+      <c r="X13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1526,76 +1612,79 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
-      <c r="J14" s="1">
+      <c r="M14" s="1">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="O14" s="2"/>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
         <v>11</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="W14" s="2"/>
+      <c r="X14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>12</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="1">
-        <v>12</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>12</v>
-      </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
@@ -1604,41 +1693,51 @@
         <v>5555555</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="2">
         <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="1">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="1">
         <v>15</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="O16" s="2"/>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
         <v>13</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="W16" s="2"/>
+      <c r="X16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="17"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>0</v>
@@ -1647,41 +1746,56 @@
         <v>5555555</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" s="2">
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="1">
+        <v>88</v>
+      </c>
+      <c r="M17" s="1">
         <v>16</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="O17" s="2"/>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
         <v>14</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="W17" s="2"/>
+      <c r="X17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
@@ -1690,41 +1804,52 @@
         <v>5555555</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2">
         <v>28</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="1">
+        <v>88</v>
+      </c>
+      <c r="M18" s="1">
         <v>17</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3">
-        <v>3</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="O18" s="2"/>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+      <c r="V18" s="1">
         <v>15</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="W18" s="2"/>
+      <c r="X18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
@@ -1733,41 +1858,48 @@
         <v>5555555</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="2">
         <v>35</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="1">
+        <v>88</v>
+      </c>
+      <c r="M19" s="1">
         <v>18</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="O19" s="2"/>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="V19" s="1">
         <v>16</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="W19" s="2"/>
+      <c r="X19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>0</v>
@@ -1776,33 +1908,40 @@
         <v>5555555</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G20" s="2">
         <v>30</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1">
+        <v>88</v>
+      </c>
+      <c r="M20" s="1">
         <v>19</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3">
-        <v>3</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="O20" s="2"/>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1">
         <v>17</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="W20" s="2"/>
+      <c r="X20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1813,25 +1952,32 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>20</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3">
-        <v>3</v>
-      </c>
-      <c r="S21" s="4">
+      <c r="O21" s="2"/>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="V21" s="4">
         <v>18</v>
       </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="W21" s="5"/>
+      <c r="X21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="6"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="4">
         <v>7</v>
       </c>
@@ -1842,520 +1988,583 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
-      <c r="J22" s="1">
+      <c r="M22" s="1">
         <v>21</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="J23" s="1">
+      <c r="O22" s="2"/>
+      <c r="P22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="M23" s="1">
         <v>22</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="J24" s="1">
+      <c r="O23" s="2"/>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="M24" s="1">
         <v>23</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="J25" s="1">
+      <c r="O24" s="2"/>
+      <c r="P24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="M25" s="1">
         <v>24</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="J26" s="1">
+      <c r="O25" s="2"/>
+      <c r="P25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="M26" s="1">
         <v>25</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="J27" s="1">
+      <c r="O26" s="2"/>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="M27" s="1">
         <v>26</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="J28" s="1">
+      <c r="O27" s="2"/>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="1">
         <v>27</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="J29" s="1">
+      <c r="O28" s="2"/>
+      <c r="P28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="1">
         <v>28</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="J30" s="1">
+      <c r="O29" s="2"/>
+      <c r="P29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="1">
         <v>29</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="J31" s="1">
+      <c r="O30" s="2"/>
+      <c r="P30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="1">
         <v>30</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="J32" s="1">
+      <c r="O31" s="2"/>
+      <c r="P31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="1">
         <v>31</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13">
-      <c r="J33" s="1">
+      <c r="O32" s="2"/>
+      <c r="P32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="1">
         <v>32</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13">
-      <c r="J34" s="1">
+      <c r="O33" s="2"/>
+      <c r="P33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="M34" s="1">
         <v>33</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="10:13">
-      <c r="J35" s="1">
+      <c r="O34" s="2"/>
+      <c r="P34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" s="1">
         <v>34</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="10:13">
-      <c r="J36" s="1">
+      <c r="O35" s="2"/>
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="1">
         <v>35</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="10:13">
-      <c r="J37" s="1">
+      <c r="O36" s="2"/>
+      <c r="P36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="1">
         <v>36</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="10:13">
-      <c r="J38" s="1">
+      <c r="O37" s="2"/>
+      <c r="P37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="1">
         <v>37</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="10:13">
-      <c r="J39" s="1">
+      <c r="O38" s="2"/>
+      <c r="P38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="M39" s="1">
         <v>38</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="10:13">
-      <c r="J40" s="1">
+      <c r="O39" s="2"/>
+      <c r="P39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="M40" s="1">
         <v>39</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="10:13">
-      <c r="J41" s="1">
+      <c r="O40" s="2"/>
+      <c r="P40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="M41" s="1">
         <v>40</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="10:13">
-      <c r="J42" s="1">
+      <c r="O41" s="2"/>
+      <c r="P41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="M42" s="1">
         <v>41</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="10:13">
-      <c r="J43" s="1">
+      <c r="O42" s="2"/>
+      <c r="P42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="M43" s="1">
         <v>42</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="10:13">
-      <c r="J44" s="1">
+      <c r="O43" s="2"/>
+      <c r="P43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="M44" s="1">
         <v>43</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="N44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="10:13">
-      <c r="J45" s="1">
+      <c r="O44" s="2"/>
+      <c r="P44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="M45" s="1">
         <v>44</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13">
-      <c r="J46" s="1">
+      <c r="O45" s="2"/>
+      <c r="P45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="M46" s="1">
         <v>45</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="10:13">
-      <c r="J47" s="1">
+      <c r="O46" s="2"/>
+      <c r="P46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="M47" s="1">
         <v>46</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="10:13">
-      <c r="J48" s="1">
+      <c r="O47" s="2"/>
+      <c r="P47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="M48" s="1">
         <v>47</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="10:13">
-      <c r="J49" s="1">
+      <c r="O48" s="2"/>
+      <c r="P48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="13:16">
+      <c r="M49" s="1">
         <v>48</v>
       </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="10:13">
-      <c r="J50" s="1">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="13:16">
+      <c r="M50" s="1">
         <v>49</v>
       </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="10:13">
-      <c r="J51" s="1">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="13:16">
+      <c r="M51" s="1">
         <v>50</v>
       </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="10:13">
-      <c r="J52" s="1">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="13:16">
+      <c r="M52" s="1">
         <v>51</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="10:13">
-      <c r="J53" s="1">
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="13:16">
+      <c r="M53" s="1">
         <v>52</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="10:13">
-      <c r="J54" s="1">
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="13:16">
+      <c r="M54" s="1">
         <v>53</v>
       </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="10:13">
-      <c r="J55" s="1">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="13:16">
+      <c r="M55" s="1">
         <v>54</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="10:13">
-      <c r="J56" s="1">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="13:16">
+      <c r="M56" s="1">
         <v>55</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="10:13">
-      <c r="J57" s="1">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="13:16">
+      <c r="M57" s="1">
         <v>56</v>
       </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="10:13">
-      <c r="J58" s="1">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="13:16">
+      <c r="M58" s="1">
         <v>57</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="10:13">
-      <c r="J59" s="1">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="13:16">
+      <c r="M59" s="1">
         <v>58</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="10:13">
-      <c r="J60" s="1">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="13:16">
+      <c r="M60" s="1">
         <v>59</v>
       </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="10:13">
-      <c r="J61" s="1">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="13:16">
+      <c r="M61" s="1">
         <v>60</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="10:13">
-      <c r="J62" s="1">
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="13:16">
+      <c r="M62" s="1">
         <v>61</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="10:13">
-      <c r="J63" s="1">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="13:16">
+      <c r="M63" s="1">
         <v>62</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="10:13">
-      <c r="J64" s="1">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="13:16">
+      <c r="M64" s="1">
         <v>63</v>
       </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="10:13">
-      <c r="J65" s="1">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="13:16">
+      <c r="M65" s="1">
         <v>64</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="10:13">
-      <c r="J66" s="1">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="13:16">
+      <c r="M66" s="1">
         <v>65</v>
       </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="10:13">
-      <c r="J67" s="1">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="13:16">
+      <c r="M67" s="1">
         <v>66</v>
       </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="10:13">
-      <c r="J68" s="1">
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="13:16">
+      <c r="M68" s="1">
         <v>67</v>
       </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="10:13">
-      <c r="J69" s="1">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="13:16">
+      <c r="M69" s="1">
         <v>68</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="10:13">
-      <c r="J70" s="1">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="13:16">
+      <c r="M70" s="1">
         <v>69</v>
       </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="10:13">
-      <c r="J71" s="1">
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="13:16">
+      <c r="M71" s="1">
         <v>70</v>
       </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="10:13">
-      <c r="J72" s="4">
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="13:16">
+      <c r="M72" s="4">
         <v>71</v>
       </c>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="6"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/alexander_matheson/final_project/Schema Design.xlsx
+++ b/alexander_matheson/final_project/Schema Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="600" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
   <si>
     <t>locations_start</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>*********</t>
-  </si>
-  <si>
-    <t>photo</t>
   </si>
   <si>
     <t>.png</t>
@@ -958,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>2</v>
@@ -1046,7 +1043,7 @@
         <v>77</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>2</v>
@@ -1058,16 +1055,16 @@
         <v>76</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD3" s="12" t="s">
         <v>74</v>
       </c>
       <c r="AE3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="AG3" s="12" t="s">
         <v>71</v>
@@ -1099,7 +1096,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -1127,13 +1124,13 @@
         <v>63</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z4" s="1">
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB4" s="2" t="b">
         <v>1</v>
@@ -1175,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M5" s="1">
         <v>2</v>
@@ -1206,13 +1203,13 @@
         <v>64</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z5" s="1">
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB5" s="2" t="b">
         <v>1</v>
@@ -1242,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -1273,13 +1270,13 @@
         <v>65</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="1">
         <v>3</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB6" s="2" t="b">
         <v>0</v>
@@ -1305,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="1">
         <v>4</v>
@@ -1336,7 +1333,7 @@
         <v>66</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z7" s="1">
         <v>4</v>
@@ -1364,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="1">
         <v>5</v>
@@ -1391,7 +1388,7 @@
         <v>67</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="1">
         <v>5</v>
@@ -1412,10 +1409,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="1">
         <v>6</v>
@@ -1439,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z9" s="1">
         <v>6</v>
@@ -1463,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="1">
         <v>7</v>
@@ -1482,7 +1479,7 @@
         <v>68</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="1">
         <v>7</v>
@@ -1506,7 +1503,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" s="1">
         <v>8</v>
@@ -1525,7 +1522,7 @@
         <v>69</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z11" s="1">
         <v>8</v>
@@ -1549,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="1">
         <v>9</v>
@@ -1566,7 +1563,7 @@
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z12" s="4">
         <v>9</v>
@@ -1598,7 +1595,7 @@
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1627,7 +1624,7 @@
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1653,10 +1650,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M15" s="1">
         <v>12</v>
@@ -1673,7 +1670,7 @@
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1699,10 +1696,10 @@
         <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16" s="1">
         <v>15</v>
@@ -1719,11 +1716,11 @@
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
@@ -1769,22 +1766,22 @@
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AC17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -1827,16 +1824,16 @@
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z18" s="1">
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB18" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="3"/>
@@ -1881,7 +1878,7 @@
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z19" s="1">
         <v>2</v>
@@ -1931,7 +1928,7 @@
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z20" s="1">
         <v>3</v>
@@ -1967,7 +1964,7 @@
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z21" s="4">
         <v>4</v>
@@ -2061,10 +2058,10 @@
     </row>
     <row r="28" spans="1:30">
       <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
         <v>107</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
       </c>
       <c r="M28" s="1">
         <v>27</v>
@@ -2079,10 +2076,10 @@
     </row>
     <row r="29" spans="1:30">
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M29" s="1">
         <v>28</v>
@@ -2100,7 +2097,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M30" s="1">
         <v>29</v>
@@ -2115,10 +2112,10 @@
     </row>
     <row r="31" spans="1:30">
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M31" s="1">
         <v>30</v>
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M32" s="1">
         <v>31</v>
@@ -2151,10 +2148,10 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M33" s="1">
         <v>32</v>
@@ -2169,10 +2166,10 @@
     </row>
     <row r="34" spans="2:16">
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M34" s="1">
         <v>33</v>
@@ -2187,10 +2184,10 @@
     </row>
     <row r="35" spans="2:16">
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M35" s="1">
         <v>34</v>
@@ -2205,7 +2202,7 @@
     </row>
     <row r="36" spans="2:16">
       <c r="D36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M36" s="1">
         <v>35</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="37" spans="2:16">
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M37" s="1">
         <v>36</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38" s="1">
         <v>37</v>
@@ -2250,7 +2247,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="D39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M39" s="1">
         <v>38</v>
@@ -2265,7 +2262,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="D40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40" s="1">
         <v>39</v>
